--- a/testdoc.xlsx
+++ b/testdoc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,8 +333,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1442,6 +1442,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1476,6 +1477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1651,14 +1653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="43.625" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
@@ -1668,7 +1670,7 @@
     <col min="11" max="11" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="129.94999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1">
+    <row r="3" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.5" customHeight="1">
+    <row r="4" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="136.5" customHeight="1">
+    <row r="5" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="77.25" customHeight="1">
+    <row r="6" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="78.75" customHeight="1">
+    <row r="7" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="112.5" customHeight="1">
+    <row r="8" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1800,7 +1802,7 @@
       <c r="H8" s="19"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="50.25" customHeight="1">
+    <row r="9" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1814,21 +1816,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="76.5" customHeight="1">
+    <row r="10" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1">
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="82.5" customHeight="1">
+    <row r="12" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1842,7 +1844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" customHeight="1">
+    <row r="13" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="91.5" customHeight="1">
+    <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="48" customHeight="1">
+    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="110.25" customHeight="1">
+    <row r="17" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="78" customHeight="1">
+    <row r="18" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="135" customHeight="1">
+    <row r="19" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1966,12 +1968,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="93.75" customHeight="1">
+    <row r="20" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="54" customHeight="1">
+    <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="72" customHeight="1">
+    <row r="22" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="72" customHeight="1">
+    <row r="23" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="104.25" customHeight="1">
+    <row r="24" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="345" customHeight="1">
+    <row r="25" spans="1:11" ht="345" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2014,7 +2016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="78.75" customHeight="1">
+    <row r="26" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="77.25" customHeight="1">
+    <row r="27" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="112.5" customHeight="1">
+    <row r="28" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2047,15 +2049,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24.95" customHeight="1">
+    <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="31" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="32" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="33" ht="24.95" customHeight="1"/>
+    <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2065,12 +2067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2079,12 +2081,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdoc.xlsx
+++ b/testdoc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>问题</t>
   </si>
@@ -329,12 +329,29 @@
     <t>图片上传失败后：提示客户上传失败；返回上传页面；</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>图片上传</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果客户第一次登录系统没有输入地址；客户点击上传图片，系统会提示“未输入地址”，但是直接跳到上传页面了，
+应该在提示“未输入地址”后返回修改地址页面；</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选好图片后，点击“上传照片”，提示选择多了，实际没多选。过会再点就没事了；</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,7 +1385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1442,7 +1459,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1477,7 +1493,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1653,14 +1668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="43.625" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
@@ -1670,7 +1685,7 @@
     <col min="11" max="11" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="129.94999999999999" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1692,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="36" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1706,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="82.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1726,7 +1741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="136.5" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1746,7 +1761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="77.25" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="78.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1786,7 +1801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="112.5" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1802,7 +1817,7 @@
       <c r="H8" s="19"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="50.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1816,21 +1831,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="76.5" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="42" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="82.5" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="75" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="91.5" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="48" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1897,7 +1912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="110.25" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1917,7 +1932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="78" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1946,7 +1961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="135" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1968,12 +1983,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="93.75" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="54" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1981,7 +1996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="72" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="72" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="104.25" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2005,7 +2020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="345" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="345" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="78.75" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="77.25" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="112.5" customHeight="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2049,15 +2064,28 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="100.5" customHeight="1">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="98.25" customHeight="1">
+      <c r="B30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="24.95" customHeight="1"/>
+    <row r="32" spans="1:11" ht="24.95" customHeight="1"/>
+    <row r="33" ht="24.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2067,12 +2095,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2081,12 +2109,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdoc.xlsx
+++ b/testdoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>问题</t>
   </si>
@@ -77,26 +77,7 @@
     <t>bug</t>
   </si>
   <si>
-    <t>尺寸应该 3，4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>已添加 4寸 8寸</t>
-  </si>
-  <si>
     <t>功能</t>
-  </si>
-  <si>
-    <t>客户选择照片后如果有重名，应该提示用户是否重复上传。（上传到服务器的照片可以保持原文件名）</t>
-  </si>
-  <si>
-    <t>每个图片在传到页面时的命名都不一样，不会出现重复上传情况</t>
-  </si>
-  <si>
-    <t>客户手机上有可能同一张照片选择了2次，要提示客户，并询问是否上传。客户选择的照片比较多，一般都在100张左右，单微信每次只能选取9张，所以经常会不小心重复选到同一张照片，要提示客户重复。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同一张图片，从相册选择到展示页面，命名不一样，没法通过判断提示重复
-</t>
   </si>
   <si>
     <t>收银台的页面返回后，再点击上传会重复提交，同一张照片会上传两次。不应该上传两次</t>
@@ -192,9 +173,6 @@
 </t>
   </si>
   <si>
-    <t>oss上传配置文件目前有两个，应该改为一个。</t>
-  </si>
-  <si>
     <t>上传的文件转成jpg格式，或者保持原格式。目前是都转成了png（工厂冲印设备只能支持jpg格式）</t>
   </si>
   <si>
@@ -234,9 +212,6 @@
   </si>
   <si>
     <t>图17.3</t>
-  </si>
-  <si>
-    <t>图17.4</t>
   </si>
   <si>
     <t>图17.5</t>
@@ -275,83 +250,155 @@
   </si>
   <si>
     <t>上传照片管理界面，点击某一照片后弹出照片大小不正确；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前尺寸在商品页选择；裁剪尺寸根据所选规格尺寸确定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">增加一个尺寸对应表；比如5寸照片如果小于20K禁止上传。   在数据库增加禁止上传尺寸：比如3寸：20k 、 4寸：40K、  </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>客户选择照片后没有支付，退出程序或微信；再次进入时保留原来选择的照片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>直接点击“购买”，编辑照片时，显示0寸，照片比例不对</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>需要再次修改</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>目前没有等待提示，只是有数个提示一闪而过，客户不清除是正在上传还是已经上传完成。加一个进度条，或上传进度；上传成功或失败都需要提示客户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>后台编辑商品信息时，尺寸会变成默认0；应该是上次商品设置的尺寸；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>图片编辑</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>客户选择旋转后如图24.1，再点击“留白”如图24.2；图片会恢复旋转之前的方向；应该按照旋转后的方向留白操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>裁剪没有按钮：在留白的边上增加“裁剪”按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>图片上传</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>上传后路径名称不能有特殊字符“:”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片上传失败后：提示客户上传失败；返回上传页面；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>图片上传</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如果客户第一次登录系统没有输入地址；客户点击上传图片，系统会提示“未输入地址”，但是直接跳到上传页面了，
 应该在提示“未输入地址”后返回修改地址页面；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>图片上传</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>选好图片后，点击“上传照片”，提示选择多了，实际没多选。过会再点就没事了；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲印商品分两种：一种单张冲印、一种套餐冲印</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商品：根据照片数量自动生成商品数量；套餐商品数量选择1；图片数量根据设置选择；
+改成添加商品时增加套餐比例：默认1 ；
+套餐比例：1 普通单张冲印
+套餐比例：100 套餐100张套餐冲印</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序首页</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开小程序时，获得授权，不授权无法进入程序；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传失败后：提示客户上传失败，并显示原因，（文件大小超过限制，让其联系客服），然后返回上传页面；
+目前是支付成功后再上传照片。
+应该是上传成功后才继续支付流程；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台；规格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序；上传图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果套餐张数是1,根据客户选择的照片数量，自动设置商品数量以及相应的总价格；
+如果套餐张数&gt;1,不自动改变商品数量；客户只能选择固定张数的照片(商品数量*套餐张数)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：如果客户选择的
+商品数量：2，
+规格是：3寸；
+比例：1:1.5
+套餐张数：10张；
+最低像素30K；
+那么该客户只能上传20张照片，裁剪比例是1:1.5，只能选择30K以上的照片；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例如：如果客户选择的
+套餐张数：1张；
+那么客户可以上传任意张照片，上传时提示客户是否确定上传N张照片。
+客户不同意-&gt;返回重新选择，
+客户同意-&gt;商品数量自动改为N;并更新价格；（注意是否影响满额包邮)；
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+如果有规格项：编码前两位是"Se"的商品需要上传图片；否则不需要上传；
+规格项：“编码”格式为：“Se-比例-套餐张数-像素”，如：1:2.3-1-30。
+代表：
+改尺寸的图片比例是1:2；
+每件商品可以上传1张照片
+照片最低像素是30K 小于30K提示不能选择上传；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复；图17.4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前客户在图片编辑界面修改图片数量；
+改为：在图片浏览界面修改数量；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,14 +410,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF4EAE04"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -458,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,16 +516,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -499,23 +535,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,14 +595,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>935440</xdr:rowOff>
     </xdr:to>
@@ -582,15 +642,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>36871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>876301</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>913171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -629,15 +689,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>756034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -676,15 +736,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1259606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -723,15 +783,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>837705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -770,15 +830,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1127809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -817,15 +877,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>197526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>559593</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1457412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -864,15 +924,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>53577</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -911,15 +971,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>69652</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>621507</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -958,15 +1018,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1646</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>496005</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>438151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -996,15 +1056,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>17994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>712259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1034,15 +1094,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>711200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1072,15 +1132,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>46739</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>430016</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1110,15 +1170,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>627106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1148,15 +1208,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>719905</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1195,15 +1255,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>500250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>881925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1242,15 +1302,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>671700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1005750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1289,15 +1349,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1006929</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>138231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>3897085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1336,15 +1396,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2626057</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4953000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>4129864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1365,6 +1425,53 @@
         <a:xfrm>
           <a:off x="9892271" y="23989392"/>
           <a:ext cx="2326943" cy="4102651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2247899</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1628774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5725390" y="40747949"/>
+          <a:ext cx="2104159" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,425 +1776,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="43.625" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="85.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.125" customWidth="1"/>
-    <col min="11" max="11" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="85.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.125" customWidth="1"/>
+    <col min="12" max="12" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="129.94999999999999" customHeight="1">
+    <row r="2" spans="1:12" ht="129.94999999999999" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1">
+    <row r="3" spans="1:12" ht="136.5" customHeight="1">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="77.25" customHeight="1">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="78.75" customHeight="1">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="112.5" customHeight="1">
+      <c r="A6">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="82.5" customHeight="1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I6" s="18"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="50.25" customHeight="1">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A8">
         <v>11</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75" customHeight="1">
+      <c r="A9">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="136.5" customHeight="1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="91.5" customHeight="1">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" customHeight="1">
+      <c r="A11">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="110.25" customHeight="1">
+      <c r="A12">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="77.25" customHeight="1">
-      <c r="A6">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="78" customHeight="1">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="135" customHeight="1">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="L14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="93.75" customHeight="1">
+      <c r="A15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="72" customHeight="1">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" s="19">
+        <v>43444</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="104.25" customHeight="1">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" s="19">
+        <v>43444</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="345" customHeight="1">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="78.75" customHeight="1">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="77.25" customHeight="1">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="112.5" customHeight="1">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100.5" customHeight="1">
+      <c r="A22">
+        <v>28</v>
+      </c>
+      <c r="B22" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="98.25" customHeight="1">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="78.75" customHeight="1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="112.5" customHeight="1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="76.5" customHeight="1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="82.5" customHeight="1">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" customHeight="1">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="91.5" customHeight="1">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="48" customHeight="1">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="93.75" customHeight="1">
+      <c r="A24">
         <v>30</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="B24" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="163.5" customHeight="1">
+      <c r="A25">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="110.25" customHeight="1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B25" s="19">
+        <v>43444</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="96" customHeight="1">
+      <c r="A26">
         <v>32</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="B26" s="19">
+        <v>43446</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="258" customHeight="1">
+      <c r="A27">
         <v>33</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="78" customHeight="1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B27" s="20">
+        <v>43446</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="138" customHeight="1">
+      <c r="A28">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="B28" s="21">
+        <v>43446</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="142.5" customHeight="1">
+      <c r="A29">
         <v>36</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="140.25" customHeight="1">
+      <c r="A30">
         <v>37</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="135" customHeight="1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="K19" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="93.75" customHeight="1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="54" customHeight="1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="72" customHeight="1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="72" customHeight="1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="104.25" customHeight="1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="345" customHeight="1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="78.75" customHeight="1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="77.25" customHeight="1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="112.5" customHeight="1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="100.5" customHeight="1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="C30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="98.25" customHeight="1">
-      <c r="B30" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="32" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="33" ht="24.95" customHeight="1"/>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2102,7 +2276,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -2116,7 +2290,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/testdoc.xlsx
+++ b/testdoc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>问题</t>
   </si>
@@ -310,26 +310,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>图片上传</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲印商品分两种：一种单张冲印、一种套餐冲印</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通商品：根据照片数量自动生成商品数量；套餐商品数量选择1；图片数量根据设置选择；
-改成添加商品时增加套餐比例：默认1 ；
-套餐比例：1 普通单张冲印
-套餐比例：100 套餐100张套餐冲印</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>程序首页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开小程序时，获得授权，不授权无法进入程序；</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -344,11 +325,6 @@
   </si>
   <si>
     <t>小程序；上传图片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果套餐张数是1,根据客户选择的照片数量，自动设置商品数量以及相应的总价格；
-如果套餐张数&gt;1,不自动改变商品数量；客户只能选择固定张数的照片(商品数量*套餐张数)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -371,34 +347,57 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>已修复；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复；图17.4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前客户在图片编辑界面修改图片数量；
+改为：在图片浏览界面修改数量；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开小程序时，获得授权，不授权无法进入程序；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得该商品的规格编码如：se-1:1.2-1-30
+如果套餐张数是1,根据客户选择的照片数量，自动设置商品数量以及相应的总价格；
+如果套餐张数&gt;1,不自动改变商品数量；客户只能选择固定张数的照片(商品数量*套餐张数)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 如果有规格项：编码前两位是"Se"的商品需要上传图片；否则不需要上传；
-规格项：“编码”格式为：“Se-比例-套餐张数-像素”，如：1:2.3-1-30。
+规格项：“编码”格式为：“Se-比例-套餐张数-像素”，如：Se-1:2.3-1-30。
 代表：
 改尺寸的图片比例是1:2；
 每件商品可以上传1张照片
-照片最低像素是30K 小于30K提示不能选择上传；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复；图17.4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前客户在图片编辑界面修改图片数量；
-改为：在图片浏览界面修改数量；</t>
+照片最低像素是30K 小于30K提示不能选择上传；
+完整的获得这三个参数后，说明该商品是一个需要传图片的商品，否则该商品是不需要传照片的普通商品
+如果获得的比例=0 那么该商品只能上传图片不能编辑。
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时提示客户等待，显示进度条或完成进度；
+  成功后继续支付流程
+  失败后提示失败原因并返回上传页面；</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,23 +558,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,13 +1447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>143740</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2247899</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1628774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1488,11 +1490,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4597135</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3069061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6072187" y="30682406"/>
+          <a:ext cx="8466667" cy="2961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1566,6 +1606,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1600,6 +1641,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1775,14 +1817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.625" customWidth="1"/>
@@ -1793,7 +1835,7 @@
     <col min="12" max="12" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="129.94999999999999" customHeight="1">
+    <row r="2" spans="1:12" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1815,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="136.5" customHeight="1">
+    <row r="3" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1835,7 +1877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="77.25" customHeight="1">
+    <row r="4" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1855,7 +1897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="78.75" customHeight="1">
+    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1875,7 +1917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="112.5" customHeight="1">
+    <row r="6" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1891,7 +1933,7 @@
       <c r="I6" s="18"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="50.25" customHeight="1">
+    <row r="7" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1905,7 +1947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="82.5" customHeight="1">
+    <row r="8" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1919,7 +1961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="75" customHeight="1">
+    <row r="9" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1933,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="91.5" customHeight="1">
+    <row r="10" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1953,7 +1995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" customHeight="1">
+    <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1967,7 +2009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="110.25" customHeight="1">
+    <row r="12" spans="1:12" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1984,13 +2026,13 @@
         <v>27</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="78" customHeight="1">
+    <row r="13" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>17</v>
       </c>
@@ -2010,7 +2052,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>32</v>
@@ -2019,7 +2061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="135" customHeight="1">
+    <row r="14" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>18</v>
       </c>
@@ -2036,19 +2078,19 @@
         <v>36</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I14" s="11"/>
       <c r="L14" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="93.75" customHeight="1">
+    <row r="15" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="72" customHeight="1">
+    <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>22</v>
       </c>
@@ -2059,7 +2101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="104.25" customHeight="1">
+    <row r="17" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2070,7 +2112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="345" customHeight="1">
+    <row r="18" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>24</v>
       </c>
@@ -2084,7 +2126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="78.75" customHeight="1">
+    <row r="19" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>25</v>
       </c>
@@ -2101,7 +2143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="77.25" customHeight="1">
+    <row r="20" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>26</v>
       </c>
@@ -2118,7 +2160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="112.5" customHeight="1">
+    <row r="21" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>27</v>
       </c>
@@ -2129,10 +2171,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100.5" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>28</v>
       </c>
@@ -2146,7 +2188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="98.25" customHeight="1">
+    <row r="23" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>29</v>
       </c>
@@ -2160,106 +2202,86 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="93.75" customHeight="1">
+    <row r="24" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="19">
-        <v>43444</v>
+        <v>43446</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="163.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>31</v>
-      </c>
-      <c r="B25" s="19">
-        <v>43444</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="20">
+        <v>43446</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="96" customHeight="1">
+      <c r="D25" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>32</v>
-      </c>
-      <c r="B26" s="19">
+        <v>35</v>
+      </c>
+      <c r="B26" s="24">
         <v>43446</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="258" customHeight="1">
+    <row r="27" spans="1:5" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>33</v>
-      </c>
-      <c r="B27" s="20">
-        <v>43446</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="138" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" s="21">
-        <v>43446</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="142.5" customHeight="1">
-      <c r="A29">
-        <v>36</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="140.25" customHeight="1">
-      <c r="A30">
-        <v>37</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
+    </row>
+    <row r="29" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2269,12 +2291,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,12 +2305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdoc.xlsx
+++ b/testdoc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>问题</t>
   </si>
@@ -392,12 +392,37 @@
   失败后提示失败原因并返回上传页面；</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>上传服务器的文件夹名：日期+商品名+单号+微信名称
+改为：日期+商品名+规格+单号+微信名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号生成：日期+五位数数字递增</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并订单</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片浏览界面，按钮：选照片，结算；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时，不符合包邮条件时，提示客户；询问客户是否返回添加照片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品数量时，反应很慢；跟现在的代码有关系吗？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +589,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,12 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,7 +911,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>559593</xdr:colOff>
+      <xdr:colOff>559592</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1457412</xdr:rowOff>
     </xdr:to>
@@ -1528,11 +1553,58 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3891280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2388393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6153468" y="49029937"/>
+          <a:ext cx="1457008" cy="2078831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1606,7 +1678,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1641,7 +1712,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1817,17 +1887,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="85.75" style="1" customWidth="1"/>
@@ -1835,7 +1905,7 @@
     <col min="12" max="12" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="129.94999999999999" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1857,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="136.5" customHeight="1">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1877,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="77.25" customHeight="1">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1897,7 +1967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="78.75" customHeight="1">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1917,7 +1987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="112.5" customHeight="1">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1933,7 +2003,7 @@
       <c r="I6" s="18"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="50.25" customHeight="1">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1947,7 +2017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="82.5" customHeight="1">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1961,7 +2031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="75" customHeight="1">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1975,7 +2045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="91.5" customHeight="1">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1995,7 +2065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="48" customHeight="1">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2009,7 +2079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="110.25" customHeight="1">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2032,7 +2102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="78" customHeight="1">
       <c r="A13">
         <v>17</v>
       </c>
@@ -2061,7 +2131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="135" customHeight="1">
       <c r="A14">
         <v>18</v>
       </c>
@@ -2085,12 +2155,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="93.75" customHeight="1">
       <c r="A15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="72" customHeight="1">
       <c r="A16">
         <v>22</v>
       </c>
@@ -2101,7 +2171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="104.25" customHeight="1">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2112,7 +2182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="345" customHeight="1">
       <c r="A18">
         <v>24</v>
       </c>
@@ -2126,7 +2196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="78.75" customHeight="1">
       <c r="A19">
         <v>25</v>
       </c>
@@ -2143,7 +2213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="77.25" customHeight="1">
       <c r="A20">
         <v>26</v>
       </c>
@@ -2160,7 +2230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="112.5" customHeight="1">
       <c r="A21">
         <v>27</v>
       </c>
@@ -2174,7 +2244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="100.5" customHeight="1">
       <c r="A22">
         <v>28</v>
       </c>
@@ -2188,7 +2258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="98.25" customHeight="1">
       <c r="A23">
         <v>29</v>
       </c>
@@ -2202,7 +2272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="96" customHeight="1">
       <c r="A24">
         <v>32</v>
       </c>
@@ -2216,7 +2286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="258" customHeight="1">
       <c r="A25">
         <v>33</v>
       </c>
@@ -2226,39 +2296,39 @@
       <c r="C25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="138" customHeight="1">
       <c r="A26">
         <v>35</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="26">
         <v>43446</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="24" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="142.5" customHeight="1">
       <c r="A27">
         <v>36</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="140.25" customHeight="1">
       <c r="A28">
         <v>37</v>
       </c>
@@ -2269,12 +2339,57 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="192" customHeight="1">
       <c r="C29" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="140.25" customHeight="1">
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="84" customHeight="1">
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="104.25" customHeight="1">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="139.5" customHeight="1">
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="89.25" customHeight="1">
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="213" customHeight="1">
+      <c r="D35" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2291,12 +2406,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2305,12 +2420,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdoc.xlsx
+++ b/testdoc.xlsx
@@ -370,9 +370,44 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时提示客户等待，显示进度条或完成进度；
+  成功后继续支付流程
+  失败后提示失败原因并返回上传页面；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传服务器的文件夹名：日期+商品名+单号+微信名称
+改为：日期+商品名+规格+单号+微信名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号生成：日期+五位数数字递增</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并订单</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片浏览界面，按钮：选照片，结算；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时，不符合包邮条件时，提示客户；询问客户是否返回添加照片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品数量时，反应很慢；跟现在的代码有关系吗？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 如果有规格项：编码前两位是"Se"的商品需要上传图片；否则不需要上传；
-规格项：“编码”格式为：“Se-比例-套餐张数-像素”，如：Se-1:2.3-1-30。
+规格项：“编码”格式为：“Se-比例-套餐张数-最小”，如：Se-1:2.3-1-30。
 代表：
 改尺寸的图片比例是1:2；
 每件商品可以上传1张照片
@@ -380,41 +415,6 @@
 完整的获得这三个参数后，说明该商品是一个需要传图片的商品，否则该商品是不需要传照片的普通商品
 如果获得的比例=0 那么该商品只能上传图片不能编辑。
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传图片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传时提示客户等待，显示进度条或完成进度；
-  成功后继续支付流程
-  失败后提示失败原因并返回上传页面；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传服务器的文件夹名：日期+商品名+单号+微信名称
-改为：日期+商品名+规格+单号+微信名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号生成：日期+五位数数字递增</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并订单</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片浏览界面，按钮：选照片，结算；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款时，不符合包邮条件时，提示客户；询问客户是否返回添加照片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品数量时，反应很慢；跟现在的代码有关系吗？</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2297,7 +2297,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="138" customHeight="1">
@@ -2341,18 +2341,18 @@
     </row>
     <row r="29" spans="1:5" ht="192" customHeight="1">
       <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="140.25" customHeight="1">
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="84" customHeight="1">
@@ -2360,7 +2360,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="104.25" customHeight="1">
@@ -2368,7 +2368,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="139.5" customHeight="1">
@@ -2376,7 +2376,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="89.25" customHeight="1">
@@ -2384,12 +2384,12 @@
         <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="213" customHeight="1">
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
